--- a/REGULAR/OJT/RODRIQUEZ, GREGORIO.xlsx
+++ b/REGULAR/OJT/RODRIQUEZ, GREGORIO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="145">
   <si>
     <t>PERIOD</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>5/10,11/2023</t>
+  </si>
+  <si>
+    <t>7/13-14/2023</t>
   </si>
 </sst>
 </file>
@@ -1531,7 +1534,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2160" topLeftCell="A343" activePane="bottomLeft"/>
       <selection activeCell="J4" sqref="J4:K4"/>
-      <selection pane="bottomLeft" activeCell="E346" sqref="E346"/>
+      <selection pane="bottomLeft" activeCell="I355" sqref="I355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,7 +1695,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>271.541</v>
+        <v>274.041</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1702,7 +1705,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>400.53300000000002</v>
+        <v>401.03300000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9127,15 +9130,17 @@
       <c r="B353" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C353" s="13"/>
+      <c r="C353" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D353" s="39">
         <v>2</v>
       </c>
       <c r="E353" s="9"/>
       <c r="F353" s="20"/>
-      <c r="G353" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G353" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H353" s="39"/>
       <c r="I353" s="9"/>
@@ -9149,13 +9154,15 @@
         <v>45078</v>
       </c>
       <c r="B354" s="20"/>
-      <c r="C354" s="13"/>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D354" s="39"/>
       <c r="E354" s="9"/>
       <c r="F354" s="20"/>
-      <c r="G354" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G354" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H354" s="39"/>
       <c r="I354" s="9"/>
@@ -9166,7 +9173,9 @@
       <c r="A355" s="40">
         <v>45108</v>
       </c>
-      <c r="B355" s="20"/>
+      <c r="B355" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C355" s="13"/>
       <c r="D355" s="39"/>
       <c r="E355" s="9"/>
@@ -9175,10 +9184,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H355" s="39"/>
+      <c r="H355" s="39">
+        <v>2</v>
+      </c>
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
-      <c r="K355" s="20"/>
+      <c r="K355" s="20" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">

--- a/REGULAR/OJT/RODRIQUEZ, GREGORIO.xlsx
+++ b/REGULAR/OJT/RODRIQUEZ, GREGORIO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="146">
   <si>
     <t>PERIOD</t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>7/13-14/2023</t>
+  </si>
+  <si>
+    <t>8/7-9/2023</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1537,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2160" topLeftCell="A343" activePane="bottomLeft"/>
       <selection activeCell="J4" sqref="J4:K4"/>
-      <selection pane="bottomLeft" activeCell="I355" sqref="I355"/>
+      <selection pane="bottomLeft" activeCell="E356" sqref="E356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1698,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>274.041</v>
+        <v>271.041</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -9197,9 +9200,13 @@
       <c r="A356" s="40">
         <v>45139</v>
       </c>
-      <c r="B356" s="20"/>
+      <c r="B356" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C356" s="13"/>
-      <c r="D356" s="39"/>
+      <c r="D356" s="39">
+        <v>3</v>
+      </c>
       <c r="E356" s="9"/>
       <c r="F356" s="20"/>
       <c r="G356" s="13" t="str">
@@ -9209,7 +9216,9 @@
       <c r="H356" s="39"/>
       <c r="I356" s="9"/>
       <c r="J356" s="11"/>
-      <c r="K356" s="20"/>
+      <c r="K356" s="20" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
